--- a/output/2016-12-01 to 2017-01-01.xlsx
+++ b/output/2016-12-01 to 2017-01-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -86,6 +86,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-11-105-01</t>
   </si>
   <si>
@@ -93,6 +96,15 @@
   </si>
   <si>
     <t>2016-08-100-02</t>
+  </si>
+  <si>
+    <t>['Hunter Young']</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan', 'Gabriel Barsi Haberfeld']</t>
+  </si>
+  <si>
+    <t>['Man-Ki Yoon', 'Bo Liu']</t>
   </si>
   <si>
     <t>cfop_GC</t>
@@ -721,13 +733,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -737,13 +749,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>21.5</v>
@@ -751,13 +766,16 @@
       <c r="D2">
         <v>51.19047619047619</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>14.5</v>
@@ -765,19 +783,25 @@
       <c r="D3">
         <v>34.52380952380953</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
         <v>14.28571428571429</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -823,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>14.5</v>
@@ -837,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>6</v>
